--- a/data/trans_orig/P36A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>133329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111426</v>
+        <v>113187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153753</v>
+        <v>157832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1916707792022385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1601842223115801</v>
+        <v>0.1627148632256347</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2210317840206193</v>
+        <v>0.2268965053354897</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -764,19 +764,19 @@
         <v>60275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47135</v>
+        <v>46952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77046</v>
+        <v>78289</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08785621513213207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06870269152105071</v>
+        <v>0.06843715958472314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1123010527035275</v>
+        <v>0.1141134753976558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -785,19 +785,19 @@
         <v>193604</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167544</v>
+        <v>167740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>221549</v>
+        <v>221348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1401221472303772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1212611786616214</v>
+        <v>0.121403103646208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1603473050641035</v>
+        <v>0.1602023747043226</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>160647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138972</v>
+        <v>139812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>185416</v>
+        <v>185357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2309435957398592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1997828160430299</v>
+        <v>0.2009913480053334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2665502220096407</v>
+        <v>0.2664656315036489</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -835,19 +835,19 @@
         <v>158671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>134919</v>
+        <v>136877</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180666</v>
+        <v>181376</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2312763364565497</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1966565109526561</v>
+        <v>0.199510626202106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2633364017323619</v>
+        <v>0.2643716281161952</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>300</v>
@@ -856,19 +856,19 @@
         <v>319318</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>289418</v>
+        <v>289707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>354134</v>
+        <v>354071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2311088165727969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2094681328004048</v>
+        <v>0.2096773776368039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2563068105205019</v>
+        <v>0.2562614228349124</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>226832</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>201734</v>
+        <v>201142</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>252528</v>
+        <v>253351</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3260888178715334</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2900095822312869</v>
+        <v>0.2891572921734935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3630297539294928</v>
+        <v>0.3642131769188874</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>196</v>
@@ -906,19 +906,19 @@
         <v>209001</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>184502</v>
+        <v>185535</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>235430</v>
+        <v>235061</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3046373676080568</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2689268704015822</v>
+        <v>0.2704337013452656</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3431593798670622</v>
+        <v>0.3426216987418295</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>414</v>
@@ -927,19 +927,19 @@
         <v>435833</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>401398</v>
+        <v>400229</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>471288</v>
+        <v>471029</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3154372014552867</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2905149497875743</v>
+        <v>0.2896683100067337</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.341098016498436</v>
+        <v>0.3409103987208231</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>129802</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108307</v>
+        <v>108277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149293</v>
+        <v>151633</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1866006780806147</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1556994048892182</v>
+        <v>0.155657554856849</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2146212350401446</v>
+        <v>0.2179845566552901</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>180</v>
@@ -977,19 +977,19 @@
         <v>196608</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>174931</v>
+        <v>172652</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225927</v>
+        <v>223016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2865731161699944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2549765385384477</v>
+        <v>0.2516555155954774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3293076374908476</v>
+        <v>0.3250645450778056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>304</v>
@@ -998,19 +998,19 @@
         <v>326410</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>297349</v>
+        <v>294203</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>358143</v>
+        <v>356191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2362415205246381</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2152081202545344</v>
+        <v>0.2129312034482368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2592087417080204</v>
+        <v>0.2577960918222485</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>45003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33317</v>
+        <v>33199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59876</v>
+        <v>59967</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0646961291057541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04789610492965805</v>
+        <v>0.04772590154108699</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08607654623785115</v>
+        <v>0.08620711439117323</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -1048,19 +1048,19 @@
         <v>61511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47246</v>
+        <v>47259</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76926</v>
+        <v>78270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08965696463326714</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06886566988850856</v>
+        <v>0.06888423560045798</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1121264043111557</v>
+        <v>0.1140851425781053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>104</v>
@@ -1069,19 +1069,19 @@
         <v>106514</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>87521</v>
+        <v>88054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>128323</v>
+        <v>127512</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07709031421690112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06334428564575255</v>
+        <v>0.06372967730065698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09287446585335249</v>
+        <v>0.09228738897728976</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>156275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>133489</v>
+        <v>134789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181828</v>
+        <v>184534</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1559290916150251</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1331930584105707</v>
+        <v>0.1344902036145578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1814257543459973</v>
+        <v>0.1841251910501311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -1241,19 +1241,19 @@
         <v>111538</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90687</v>
+        <v>89930</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133992</v>
+        <v>133606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.10919976465572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08878634161224756</v>
+        <v>0.08804487021707888</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1311835691039841</v>
+        <v>0.1308056101042986</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>244</v>
@@ -1262,19 +1262,19 @@
         <v>267813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>237639</v>
+        <v>238599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>303251</v>
+        <v>300062</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1323428777165203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1174322244521653</v>
+        <v>0.1179066422585948</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1498550939524644</v>
+        <v>0.1482795352175658</v>
       </c>
     </row>
     <row r="12">
@@ -1291,19 +1291,19 @@
         <v>235207</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>205400</v>
+        <v>207738</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>264171</v>
+        <v>265431</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2346858366595073</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2049457199036289</v>
+        <v>0.2072779580114977</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2635865603524177</v>
+        <v>0.264843020804199</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>192</v>
@@ -1312,19 +1312,19 @@
         <v>211966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>186251</v>
+        <v>187819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>241182</v>
+        <v>239102</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2075238206414582</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1823472577793165</v>
+        <v>0.1838820952690203</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2361270861411753</v>
+        <v>0.2340902354492219</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>403</v>
@@ -1333,19 +1333,19 @@
         <v>447173</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>410602</v>
+        <v>411763</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>488840</v>
+        <v>486368</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2209760496498584</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2029039552482631</v>
+        <v>0.2034774931411613</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2415662376871474</v>
+        <v>0.2403444673259331</v>
       </c>
     </row>
     <row r="13">
@@ -1362,19 +1362,19 @@
         <v>352029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>323133</v>
+        <v>323438</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>383946</v>
+        <v>387445</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3512498713237844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3224180474151744</v>
+        <v>0.3227223557579454</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3830955245484076</v>
+        <v>0.3865872799563229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -1383,19 +1383,19 @@
         <v>334203</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>305715</v>
+        <v>303176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>367004</v>
+        <v>365366</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3271984922321312</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2993071481670347</v>
+        <v>0.2968212960558174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3593116203592351</v>
+        <v>0.3577084498615884</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>636</v>
@@ -1404,19 +1404,19 @@
         <v>686232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>646338</v>
+        <v>645109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>731295</v>
+        <v>728287</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3391101507516525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3193957223896758</v>
+        <v>0.3187884459671548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3613783154585585</v>
+        <v>0.359892092365919</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>215246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>188012</v>
+        <v>186665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>244257</v>
+        <v>240036</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2147696868076442</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1875954250768248</v>
+        <v>0.1862514571656465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2437159190187619</v>
+        <v>0.2395046690439915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>264</v>
@@ -1454,19 +1454,19 @@
         <v>289905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>260789</v>
+        <v>261291</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>319068</v>
+        <v>320172</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2838289576778588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.255323358507744</v>
+        <v>0.2558144803749641</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3123802670147816</v>
+        <v>0.3134616911643346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>463</v>
@@ -1475,19 +1475,19 @@
         <v>505151</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>466829</v>
+        <v>469018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>546258</v>
+        <v>547809</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2496267421176461</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2306892847107075</v>
+        <v>0.2317710522603282</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2699399476306683</v>
+        <v>0.2707067109866977</v>
       </c>
     </row>
     <row r="15">
@@ -1504,19 +1504,19 @@
         <v>43462</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31803</v>
+        <v>32175</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>57870</v>
+        <v>57984</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04336551359403893</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03173282174064073</v>
+        <v>0.03210362153669703</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05774176248328853</v>
+        <v>0.05785547674742045</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>64</v>
@@ -1525,19 +1525,19 @@
         <v>73796</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58127</v>
+        <v>57000</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>93656</v>
+        <v>93707</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07224896479283184</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05690909178999108</v>
+        <v>0.05580550642257497</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09169351015290335</v>
+        <v>0.09174292101977702</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>106</v>
@@ -1546,19 +1546,19 @@
         <v>117257</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>97419</v>
+        <v>93530</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>143888</v>
+        <v>140665</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05794417976432276</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04814085748537519</v>
+        <v>0.04621902726100502</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07110414839145202</v>
+        <v>0.06951146318088328</v>
       </c>
     </row>
     <row r="16">
@@ -1697,19 +1697,19 @@
         <v>78816</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62185</v>
+        <v>62156</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97588</v>
+        <v>100335</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1058236616912963</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08349392098610861</v>
+        <v>0.08345417473137229</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1310273961211653</v>
+        <v>0.1347165716632922</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -1718,19 +1718,19 @@
         <v>49068</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36038</v>
+        <v>36339</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64278</v>
+        <v>65958</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06387867739191273</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04691549404436909</v>
+        <v>0.04730721347604848</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08367998334089782</v>
+        <v>0.08586660625967533</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -1739,19 +1739,19 @@
         <v>127884</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>105932</v>
+        <v>106950</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153724</v>
+        <v>153565</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08452741207429906</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07001752386685098</v>
+        <v>0.07069033648473222</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1016062964722295</v>
+        <v>0.1015016419841262</v>
       </c>
     </row>
     <row r="19">
@@ -1768,19 +1768,19 @@
         <v>162829</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>137795</v>
+        <v>140998</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187040</v>
+        <v>187431</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2186239564804566</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1850118071747502</v>
+        <v>0.1893126080260569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2511312388711603</v>
+        <v>0.2516563136593611</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -1789,19 +1789,19 @@
         <v>142352</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>119005</v>
+        <v>119753</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>164606</v>
+        <v>168301</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1853192303131409</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1549253263207604</v>
+        <v>0.1558993669218204</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2142902342255893</v>
+        <v>0.2191007883801175</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>274</v>
@@ -1810,19 +1810,19 @@
         <v>305181</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>274545</v>
+        <v>276597</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>338577</v>
+        <v>339679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.20171452681367</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1814651397987484</v>
+        <v>0.1828217196938295</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2237883059450357</v>
+        <v>0.2245168163010057</v>
       </c>
     </row>
     <row r="20">
@@ -1839,19 +1839,19 @@
         <v>249407</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224480</v>
+        <v>222629</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277760</v>
+        <v>276475</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3348687547867968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3014014695146853</v>
+        <v>0.2989151656607235</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3729374004977213</v>
+        <v>0.3712119161330275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>231</v>
@@ -1860,19 +1860,19 @@
         <v>257483</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229683</v>
+        <v>228358</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>286617</v>
+        <v>284160</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3352005433225875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.299009339440003</v>
+        <v>0.2972852599719111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3731290262644548</v>
+        <v>0.3699307230762479</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>464</v>
@@ -1881,19 +1881,19 @@
         <v>506889</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>468813</v>
+        <v>468943</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>542863</v>
+        <v>547725</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3350372100048946</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3098702254675918</v>
+        <v>0.3099562526981316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3588145694476058</v>
+        <v>0.3620286773858761</v>
       </c>
     </row>
     <row r="21">
@@ -1910,19 +1910,19 @@
         <v>204829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>177178</v>
+        <v>178382</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>229486</v>
+        <v>231398</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2750167054669546</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.237890640839233</v>
+        <v>0.2395065061201089</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3081226867266997</v>
+        <v>0.3106898733328311</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>222</v>
@@ -1931,19 +1931,19 @@
         <v>242356</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>217687</v>
+        <v>217564</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>269170</v>
+        <v>273023</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3155087472777482</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.283393557151799</v>
+        <v>0.283232869416479</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3504150499614503</v>
+        <v>0.3554319069863954</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>404</v>
@@ -1952,19 +1952,19 @@
         <v>447186</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>410744</v>
+        <v>414793</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>484148</v>
+        <v>488125</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.295575269126191</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2714883806971516</v>
+        <v>0.274164524080357</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3200057680265897</v>
+        <v>0.3226344251714275</v>
       </c>
     </row>
     <row r="22">
@@ -1981,19 +1981,19 @@
         <v>48908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35253</v>
+        <v>35712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64799</v>
+        <v>66091</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06566692157449566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04733316631299139</v>
+        <v>0.04794978823467692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08700308095556888</v>
+        <v>0.08873814472993129</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -2002,19 +2002,19 @@
         <v>76886</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60678</v>
+        <v>60360</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94110</v>
+        <v>94180</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1000928016946106</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07899244667273123</v>
+        <v>0.0785786001866025</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1225154788510946</v>
+        <v>0.1226076327282385</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -2023,19 +2023,19 @@
         <v>125794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104464</v>
+        <v>103745</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>153041</v>
+        <v>147899</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08314558198094535</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06904706819186696</v>
+        <v>0.06857200352434885</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1011547795267437</v>
+        <v>0.09775631975192897</v>
       </c>
     </row>
     <row r="23">
@@ -2174,19 +2174,19 @@
         <v>168830</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>146487</v>
+        <v>146067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>193590</v>
+        <v>193441</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1800982163478025</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.156264059441222</v>
+        <v>0.1558159559555708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2065099916013878</v>
+        <v>0.2063512740224643</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -2195,19 +2195,19 @@
         <v>151098</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>127277</v>
+        <v>130997</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176252</v>
+        <v>177071</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1458394300379329</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1228474786366942</v>
+        <v>0.1264376251600031</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1701171912168387</v>
+        <v>0.1709082131086885</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>306</v>
@@ -2216,19 +2216,19 @@
         <v>319929</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>283185</v>
+        <v>291226</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>354530</v>
+        <v>356933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1621127875264957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1434940734953446</v>
+        <v>0.1475686594707168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1796459109377591</v>
+        <v>0.1808632913256615</v>
       </c>
     </row>
     <row r="26">
@@ -2245,19 +2245,19 @@
         <v>308074</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>279041</v>
+        <v>276599</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>336300</v>
+        <v>337723</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3286353094381568</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2976643509571032</v>
+        <v>0.2950588809619996</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3587444004618844</v>
+        <v>0.3602624238669256</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>263</v>
@@ -2266,19 +2266,19 @@
         <v>278185</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>250597</v>
+        <v>251282</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>304475</v>
+        <v>306578</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2685026747625037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2418753682929072</v>
+        <v>0.2425361204192577</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2938775004299548</v>
+        <v>0.2959077752495445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>558</v>
@@ -2287,19 +2287,19 @@
         <v>586259</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>543616</v>
+        <v>543610</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>625431</v>
+        <v>626921</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2970664379955326</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2754582842897312</v>
+        <v>0.2754556937761047</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3169154244515061</v>
+        <v>0.3176703125286295</v>
       </c>
     </row>
     <row r="27">
@@ -2316,19 +2316,19 @@
         <v>283781</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>255171</v>
+        <v>257051</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>312719</v>
+        <v>315657</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3027208564029585</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2722017907307556</v>
+        <v>0.2742066508972923</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3335900467189555</v>
+        <v>0.3367245827688533</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>302</v>
@@ -2337,19 +2337,19 @@
         <v>318355</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>291561</v>
+        <v>288886</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>347740</v>
+        <v>350174</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3072748684728864</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2814135420024191</v>
+        <v>0.2788314351029662</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3356368099723224</v>
+        <v>0.3379862411561066</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>577</v>
@@ -2358,19 +2358,19 @@
         <v>602136</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>563636</v>
+        <v>559970</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>643868</v>
+        <v>643906</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3051116550493035</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2856028719627095</v>
+        <v>0.2837455430173972</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3262575183211847</v>
+        <v>0.3262771599591811</v>
       </c>
     </row>
     <row r="28">
@@ -2387,19 +2387,19 @@
         <v>137601</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>114648</v>
+        <v>114728</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>161155</v>
+        <v>160987</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1467849983622468</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1222993441115666</v>
+        <v>0.1223851168526423</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.171910366605802</v>
+        <v>0.1717309185051217</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>203</v>
@@ -2408,19 +2408,19 @@
         <v>209027</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>184087</v>
+        <v>184849</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>235088</v>
+        <v>235542</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2017518370356234</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1776800794749938</v>
+        <v>0.1784154424525237</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2269059667162342</v>
+        <v>0.2273444288496643</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>333</v>
@@ -2429,19 +2429,19 @@
         <v>346628</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>312571</v>
+        <v>314695</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>380668</v>
+        <v>386732</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1756418923441409</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.158384636109905</v>
+        <v>0.1594608014300593</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1928901381113914</v>
+        <v>0.195963029966059</v>
       </c>
     </row>
     <row r="29">
@@ -2458,19 +2458,19 @@
         <v>39148</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28534</v>
+        <v>28898</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53148</v>
+        <v>53249</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04176061944883546</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03043844105561162</v>
+        <v>0.03082675283559333</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05669553724659345</v>
+        <v>0.05680326306923209</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>74</v>
@@ -2479,19 +2479,19 @@
         <v>79395</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>62772</v>
+        <v>63465</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>98429</v>
+        <v>97714</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07663118969105358</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06058755005009239</v>
+        <v>0.06125615008899717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09500303379330138</v>
+        <v>0.09431304011348245</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>112</v>
@@ -2500,19 +2500,19 @@
         <v>118542</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>98703</v>
+        <v>97980</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>141727</v>
+        <v>141019</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06006722708452735</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05001442979782095</v>
+        <v>0.0496480613922213</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07181542799411192</v>
+        <v>0.07145644358300314</v>
       </c>
     </row>
     <row r="30">
@@ -2651,19 +2651,19 @@
         <v>537251</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>494692</v>
+        <v>494948</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>582514</v>
+        <v>584352</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.158947202226242</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1463560715101044</v>
+        <v>0.146431948030753</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1723386311402862</v>
+        <v>0.172882274424454</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>351</v>
@@ -2672,19 +2672,19 @@
         <v>371979</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>334006</v>
+        <v>333986</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>408100</v>
+        <v>407212</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1059263045517067</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09511302322153523</v>
+        <v>0.09510717344498623</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1162121899808175</v>
+        <v>0.1159594880002102</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>848</v>
@@ -2693,19 +2693,19 @@
         <v>909230</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>848144</v>
+        <v>853747</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>966995</v>
+        <v>967294</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1319304417237608</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.12306677905385</v>
+        <v>0.1238797972915037</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1403122689581256</v>
+        <v>0.1403556576667644</v>
       </c>
     </row>
     <row r="33">
@@ -2722,19 +2722,19 @@
         <v>866757</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>810720</v>
+        <v>818497</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>919229</v>
+        <v>924823</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2564327192219166</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2398539275116412</v>
+        <v>0.2421547332952197</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2719567693086262</v>
+        <v>0.2736116493569264</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>728</v>
@@ -2743,19 +2743,19 @@
         <v>791174</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>741868</v>
+        <v>737560</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>841119</v>
+        <v>841027</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2252980022370022</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2112574811341335</v>
+        <v>0.2100304777503618</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2395203325459958</v>
+        <v>0.2394942516665229</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1535</v>
@@ -2764,19 +2764,19 @@
         <v>1657931</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1587420</v>
+        <v>1587070</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1732116</v>
+        <v>1735466</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2405680464421882</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2303367325545499</v>
+        <v>0.2302860265586301</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2513323410272483</v>
+        <v>0.2518183924157907</v>
       </c>
     </row>
     <row r="34">
@@ -2793,19 +2793,19 @@
         <v>1112049</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1054304</v>
+        <v>1054979</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1168246</v>
+        <v>1170394</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3290030126197054</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3119190771513012</v>
+        <v>0.3121187019963918</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3456292243490949</v>
+        <v>0.3462645650264521</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1038</v>
@@ -2814,19 +2814,19 @@
         <v>1119042</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1062820</v>
+        <v>1068463</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1176664</v>
+        <v>1178164</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3186630414444293</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3026529354389725</v>
+        <v>0.304259899086146</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3350715690763477</v>
+        <v>0.3354988538032486</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2091</v>
@@ -2835,19 +2835,19 @@
         <v>2231091</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2154295</v>
+        <v>2149216</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2306161</v>
+        <v>2316288</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3237342876999619</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3125911647083237</v>
+        <v>0.3118541947987289</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3346270601192095</v>
+        <v>0.3360964838603848</v>
       </c>
     </row>
     <row r="35">
@@ -2864,19 +2864,19 @@
         <v>687479</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>636006</v>
+        <v>636354</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>738433</v>
+        <v>732492</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2033927629168089</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1881642888784927</v>
+        <v>0.1882672378132311</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2184677027529743</v>
+        <v>0.2167098706589298</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>869</v>
@@ -2885,19 +2885,19 @@
         <v>937897</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>889225</v>
+        <v>882847</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>998593</v>
+        <v>988769</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2670792777780612</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2532193236051699</v>
+        <v>0.2514029986009854</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2843633988160376</v>
+        <v>0.2815658924203547</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1504</v>
@@ -2906,19 +2906,19 @@
         <v>1625376</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1557148</v>
+        <v>1548502</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1704505</v>
+        <v>1694899</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2358441810313409</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2259442014269166</v>
+        <v>0.2246896472654762</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2473259134583351</v>
+        <v>0.2459320825917331</v>
       </c>
     </row>
     <row r="36">
@@ -2935,19 +2935,19 @@
         <v>176521</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>151276</v>
+        <v>149831</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>202816</v>
+        <v>202618</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05222430301532718</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04475532972958072</v>
+        <v>0.04432800786592118</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06000369963246507</v>
+        <v>0.05994513251287027</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>268</v>
@@ -2956,19 +2956,19 @@
         <v>291587</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>257140</v>
+        <v>255025</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>323962</v>
+        <v>325748</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08303337398880065</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07322435090732493</v>
+        <v>0.07262199990070504</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09225281248516666</v>
+        <v>0.09276135152885417</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>439</v>
@@ -2977,19 +2977,19 @@
         <v>468108</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>426879</v>
+        <v>424425</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>506817</v>
+        <v>513885</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06792304310274826</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06194078576341164</v>
+        <v>0.06158470865696644</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07353984008795836</v>
+        <v>0.07456535601024186</v>
       </c>
     </row>
     <row r="37">
@@ -3368,19 +3368,19 @@
         <v>139512</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119958</v>
+        <v>117010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163518</v>
+        <v>162224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2108053016529786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1812597009405743</v>
+        <v>0.1768052961108606</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2470796348722966</v>
+        <v>0.2451238828260298</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -3389,19 +3389,19 @@
         <v>70634</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55864</v>
+        <v>55086</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87046</v>
+        <v>87125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1069565437715478</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0845913090751604</v>
+        <v>0.08341352834555828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1318080405017648</v>
+        <v>0.1319282767217702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -3410,19 +3410,19 @@
         <v>210146</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>186216</v>
+        <v>185509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>239622</v>
+        <v>237272</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1589360733211724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1408379954535579</v>
+        <v>0.1403027214996357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1812289884161744</v>
+        <v>0.1794517135545131</v>
       </c>
     </row>
     <row r="5">
@@ -3439,19 +3439,19 @@
         <v>141847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121505</v>
+        <v>120528</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163345</v>
+        <v>162599</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2143342469387724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1835964278087018</v>
+        <v>0.1821200952335345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2468179104214825</v>
+        <v>0.2456901319068384</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -3460,19 +3460,19 @@
         <v>155764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>134357</v>
+        <v>134492</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>179755</v>
+        <v>178356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2358633303953494</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2034482908985951</v>
+        <v>0.2036526166630108</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2721904110072296</v>
+        <v>0.2700726335584384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>292</v>
@@ -3481,19 +3481,19 @@
         <v>297611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>270155</v>
+        <v>269342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>328027</v>
+        <v>330236</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2250873552894634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2043216662174971</v>
+        <v>0.203706739524471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2480912357895102</v>
+        <v>0.2497622256706044</v>
       </c>
     </row>
     <row r="6">
@@ -3510,19 +3510,19 @@
         <v>240727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>218943</v>
+        <v>215948</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>268431</v>
+        <v>265813</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3637443374581145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3308280589794255</v>
+        <v>0.3263015010591013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4056051977419287</v>
+        <v>0.4016486376816849</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -3531,19 +3531,19 @@
         <v>246159</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>220763</v>
+        <v>222740</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>271699</v>
+        <v>269892</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3727417258075557</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3342863445693759</v>
+        <v>0.3372799913067243</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4114155454385915</v>
+        <v>0.4086793967461518</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>479</v>
@@ -3552,19 +3552,19 @@
         <v>486886</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>453361</v>
+        <v>452247</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>521112</v>
+        <v>519500</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3682382534202095</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3428830884179397</v>
+        <v>0.3420407006890627</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3941241844276446</v>
+        <v>0.3929045569528553</v>
       </c>
     </row>
     <row r="7">
@@ -3581,19 +3581,19 @@
         <v>107358</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88496</v>
+        <v>90265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126557</v>
+        <v>126896</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1622208054172041</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1337198300528987</v>
+        <v>0.1363918491501872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1912306339708773</v>
+        <v>0.1917428908570828</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -3602,19 +3602,19 @@
         <v>139845</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120803</v>
+        <v>121431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162892</v>
+        <v>163228</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2117583010014915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1829241928765852</v>
+        <v>0.1838741682258671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2466560779900761</v>
+        <v>0.2471659337412027</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>246</v>
@@ -3623,19 +3623,19 @@
         <v>247203</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>220407</v>
+        <v>221603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>277761</v>
+        <v>274820</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1869632454989712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1666966496118737</v>
+        <v>0.1676016711400502</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2100742174612319</v>
+        <v>0.2078502195406382</v>
       </c>
     </row>
     <row r="8">
@@ -3652,19 +3652,19 @@
         <v>32359</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22610</v>
+        <v>22388</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46142</v>
+        <v>45534</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04889530853293049</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03416416520468363</v>
+        <v>0.033828139089674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06972207099881957</v>
+        <v>0.0688028209906875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -3673,19 +3673,19 @@
         <v>47998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36087</v>
+        <v>35989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63472</v>
+        <v>63383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07268009902405564</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05464382329457784</v>
+        <v>0.05449636541420612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09611113013319232</v>
+        <v>0.09597703931318849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -3694,19 +3694,19 @@
         <v>80357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61956</v>
+        <v>63850</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98540</v>
+        <v>99775</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06077507247018352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04685810464109312</v>
+        <v>0.0482907138854335</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07452731272470672</v>
+        <v>0.07546128238703881</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>168352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>145275</v>
+        <v>146679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196336</v>
+        <v>194714</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1698633658037313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1465793654836214</v>
+        <v>0.1479962959952853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1980989809683791</v>
+        <v>0.1964625360304927</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -3866,19 +3866,19 @@
         <v>143021</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>123549</v>
+        <v>121521</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166568</v>
+        <v>166345</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1403172910670966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1212135377547366</v>
+        <v>0.1192242285541833</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.163419947588275</v>
+        <v>0.1632013078366082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>291</v>
@@ -3887,19 +3887,19 @@
         <v>311372</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>282108</v>
+        <v>279727</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>347290</v>
+        <v>346995</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1548833561754197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1403266551439994</v>
+        <v>0.1391422307744897</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1727496656995127</v>
+        <v>0.1726027671116178</v>
       </c>
     </row>
     <row r="12">
@@ -3916,19 +3916,19 @@
         <v>307752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>278551</v>
+        <v>276887</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>334949</v>
+        <v>336976</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3105157870341494</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2810518659124075</v>
+        <v>0.2793736930631106</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3379568319909464</v>
+        <v>0.3400022955816956</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>288</v>
@@ -3937,19 +3937,19 @@
         <v>309958</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>282152</v>
+        <v>280420</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>343596</v>
+        <v>341108</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3040996532386419</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2768188808295061</v>
+        <v>0.2751198056612347</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3371017504127298</v>
+        <v>0.3346611391601163</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>573</v>
@@ -3958,19 +3958,19 @@
         <v>617710</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>574763</v>
+        <v>576221</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>660238</v>
+        <v>660528</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3072627746834406</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2858999627034509</v>
+        <v>0.286624917671446</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3284169767381411</v>
+        <v>0.3285611371687369</v>
       </c>
     </row>
     <row r="13">
@@ -3987,19 +3987,19 @@
         <v>332828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>303040</v>
+        <v>304377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364731</v>
+        <v>364186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.335816467897963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3057617549667785</v>
+        <v>0.3071107491838415</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3680064258542534</v>
+        <v>0.3674564716603342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -4008,19 +4008,19 @@
         <v>353034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>322851</v>
+        <v>321015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>385334</v>
+        <v>384416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3463610277837744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3167484190448672</v>
+        <v>0.3149479665210672</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3780504963066997</v>
+        <v>0.3771498221444469</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>645</v>
@@ -4029,19 +4029,19 @@
         <v>685861</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>643965</v>
+        <v>644932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>726255</v>
+        <v>731274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3411626131989464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3203225564316665</v>
+        <v>0.3208034546159074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3612550704090214</v>
+        <v>0.3637519899217109</v>
       </c>
     </row>
     <row r="14">
@@ -4058,19 +4058,19 @@
         <v>140621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118655</v>
+        <v>118264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>164254</v>
+        <v>164102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1418836834052463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1197200808357986</v>
+        <v>0.1193255751093486</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1657285200789161</v>
+        <v>0.1655754100735944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -4079,19 +4079,19 @@
         <v>167175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142058</v>
+        <v>143000</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191529</v>
+        <v>193678</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1640152793339488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1393727706276587</v>
+        <v>0.1402970171368952</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1879090020508781</v>
+        <v>0.1900175185300382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>287</v>
@@ -4100,19 +4100,19 @@
         <v>307796</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>274610</v>
+        <v>276749</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>343098</v>
+        <v>344982</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1531045147020274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1365971839610609</v>
+        <v>0.1376612210448734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1706646726955198</v>
+        <v>0.1716017433468272</v>
       </c>
     </row>
     <row r="15">
@@ -4129,19 +4129,19 @@
         <v>41548</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30261</v>
+        <v>30764</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>54758</v>
+        <v>55437</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04192069585890999</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03053261970640231</v>
+        <v>0.03104011471971131</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05524998519117615</v>
+        <v>0.05593517710627663</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -4150,19 +4150,19 @@
         <v>46078</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32240</v>
+        <v>33164</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>63489</v>
+        <v>62616</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04520674857653836</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03163037217652394</v>
+        <v>0.03253684281147918</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06228938098000972</v>
+        <v>0.06143288802052902</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>82</v>
@@ -4171,19 +4171,19 @@
         <v>87625</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70028</v>
+        <v>70397</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>109927</v>
+        <v>106158</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04358674124016591</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03483334139641631</v>
+        <v>0.03501726111348698</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05467992074588171</v>
+        <v>0.0528055556989138</v>
       </c>
     </row>
     <row r="16">
@@ -4322,19 +4322,19 @@
         <v>87197</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70275</v>
+        <v>68595</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107709</v>
+        <v>104678</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1154632913429957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0930553007866618</v>
+        <v>0.09083167911408047</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1426245438856797</v>
+        <v>0.1386113677699175</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -4343,19 +4343,19 @@
         <v>67191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51492</v>
+        <v>53265</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84250</v>
+        <v>84606</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0867610462087863</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06649058745057275</v>
+        <v>0.06877928444491418</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1087897460405067</v>
+        <v>0.1092488141149622</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>143</v>
@@ -4364,19 +4364,19 @@
         <v>154387</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132168</v>
+        <v>132779</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>181778</v>
+        <v>180982</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1009316544624838</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08640569503709918</v>
+        <v>0.08680510722860817</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1188381139552176</v>
+        <v>0.1183182926969698</v>
       </c>
     </row>
     <row r="19">
@@ -4393,19 +4393,19 @@
         <v>192590</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>166630</v>
+        <v>170509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>217415</v>
+        <v>218933</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2550206241032416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2206458131645968</v>
+        <v>0.2257827496410579</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2878931810681675</v>
+        <v>0.2899037556359803</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>203</v>
@@ -4414,19 +4414,19 @@
         <v>218632</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>193140</v>
+        <v>192918</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>244977</v>
+        <v>244446</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2823122701757679</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2493961817313849</v>
+        <v>0.2491096411066195</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3163309674289462</v>
+        <v>0.3156455398690124</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>380</v>
@@ -4435,19 +4435,19 @@
         <v>411221</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>377495</v>
+        <v>376443</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>451380</v>
+        <v>445639</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2688380899057587</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2467894731797458</v>
+        <v>0.2461020777973418</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2950923715995651</v>
+        <v>0.2913391384543985</v>
       </c>
     </row>
     <row r="20">
@@ -4464,19 +4464,19 @@
         <v>281887</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254805</v>
+        <v>255304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>312355</v>
+        <v>308091</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3732651953610175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3374045849799678</v>
+        <v>0.338065233805303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4136099230181391</v>
+        <v>0.4079636755552427</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>269</v>
@@ -4485,19 +4485,19 @@
         <v>283839</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258598</v>
+        <v>255270</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>314178</v>
+        <v>309508</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3665129576146333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3339195114190471</v>
+        <v>0.3296227285549929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4056878758125733</v>
+        <v>0.3996576346034051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>527</v>
@@ -4506,19 +4506,19 @@
         <v>565726</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>529719</v>
+        <v>529689</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>604355</v>
+        <v>604403</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3698466102781247</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3463070967540232</v>
+        <v>0.3462875701053241</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3951003853444707</v>
+        <v>0.3951318986394599</v>
       </c>
     </row>
     <row r="21">
@@ -4535,19 +4535,19 @@
         <v>169519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>146608</v>
+        <v>144933</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>195079</v>
+        <v>192441</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2244715185401318</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1941328297973801</v>
+        <v>0.191916061918054</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2583169044658263</v>
+        <v>0.2548241830167654</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>162</v>
@@ -4556,19 +4556,19 @@
         <v>174219</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>152230</v>
+        <v>148947</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>201283</v>
+        <v>197566</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2249630864540733</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1965693662644107</v>
+        <v>0.1923306038531157</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2599099589886927</v>
+        <v>0.2551109466616272</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>317</v>
@@ -4577,19 +4577,19 @@
         <v>343737</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>309662</v>
+        <v>312846</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>378540</v>
+        <v>379718</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2247203940686525</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2024431338376912</v>
+        <v>0.2045248257113824</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2474726566932657</v>
+        <v>0.2482427560791558</v>
       </c>
     </row>
     <row r="22">
@@ -4606,19 +4606,19 @@
         <v>24000</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16156</v>
+        <v>14425</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36287</v>
+        <v>34600</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03177937065261333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02139365124328366</v>
+        <v>0.01910137729923901</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04804947921167714</v>
+        <v>0.04581600495248737</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -4627,19 +4627,19 @@
         <v>30552</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21225</v>
+        <v>20374</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43524</v>
+        <v>43660</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03945063954673915</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0274073980241648</v>
+        <v>0.02630885934406384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0562010125008794</v>
+        <v>0.05637639855202742</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4648,19 +4648,19 @@
         <v>54551</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40260</v>
+        <v>40948</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68480</v>
+        <v>71412</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03566325128498022</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02632021318463429</v>
+        <v>0.02676974513767006</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04476937715531679</v>
+        <v>0.04668585028458501</v>
       </c>
     </row>
     <row r="23">
@@ -4799,19 +4799,19 @@
         <v>169274</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145702</v>
+        <v>146171</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>193327</v>
+        <v>192555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1852517079141333</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1594553878403156</v>
+        <v>0.1599681647693443</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2115752625763058</v>
+        <v>0.2107311280615127</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -4820,19 +4820,19 @@
         <v>139121</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>119154</v>
+        <v>115713</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>164453</v>
+        <v>162801</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1347834931955531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1154385451215293</v>
+        <v>0.1121052631651892</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1593253755707713</v>
+        <v>0.1577249605806857</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>288</v>
@@ -4841,19 +4841,19 @@
         <v>308395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>277145</v>
+        <v>276576</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>341082</v>
+        <v>344469</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1584818068445886</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1424228076806041</v>
+        <v>0.1421302229951154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1752794208185417</v>
+        <v>0.1770200216032637</v>
       </c>
     </row>
     <row r="26">
@@ -4870,19 +4870,19 @@
         <v>274938</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>244448</v>
+        <v>247754</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>300294</v>
+        <v>302678</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3008904571957819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2675218013379234</v>
+        <v>0.2711401963411363</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.328639728984346</v>
+        <v>0.3312484019547399</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>266</v>
@@ -4891,19 +4891,19 @@
         <v>280165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>251934</v>
+        <v>252781</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>309224</v>
+        <v>310031</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2714295666267849</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2440789501824516</v>
+        <v>0.2449000391216195</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2995829494501118</v>
+        <v>0.3003642924350096</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>540</v>
@@ -4912,19 +4912,19 @@
         <v>555103</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>518495</v>
+        <v>517460</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>593071</v>
+        <v>596205</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.28526349019585</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2664509065829228</v>
+        <v>0.2659186845927332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3047748187177113</v>
+        <v>0.3063854858570212</v>
       </c>
     </row>
     <row r="27">
@@ -4941,19 +4941,19 @@
         <v>290225</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>263887</v>
+        <v>261974</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>317102</v>
+        <v>317239</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3176195289674033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.288796076058552</v>
+        <v>0.2867022901773293</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.347033556219372</v>
+        <v>0.3471839240092811</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>341</v>
@@ -4962,19 +4962,19 @@
         <v>369584</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>338454</v>
+        <v>339578</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>403884</v>
+        <v>401740</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3580607568077227</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3279018538722361</v>
+        <v>0.3289903459983611</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3912911479288483</v>
+        <v>0.3892139497027841</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>635</v>
@@ -4983,19 +4983,19 @@
         <v>659809</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>618755</v>
+        <v>613675</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>704414</v>
+        <v>701356</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3390708062605091</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3179734999483201</v>
+        <v>0.3153628803153048</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.361992985068042</v>
+        <v>0.3604215862512286</v>
       </c>
     </row>
     <row r="28">
@@ -5012,19 +5012,19 @@
         <v>145923</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>127583</v>
+        <v>126928</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>172514</v>
+        <v>169300</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1596965440576194</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1396257080446525</v>
+        <v>0.1389090964830359</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1887983263610317</v>
+        <v>0.185281018059987</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>170</v>
@@ -5033,19 +5033,19 @@
         <v>191973</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>167917</v>
+        <v>165298</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220282</v>
+        <v>221245</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1859877200104306</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1626818174618814</v>
+        <v>0.1601439423598919</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2134137574894479</v>
+        <v>0.2143467835709944</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>315</v>
@@ -5054,19 +5054,19 @@
         <v>337896</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>303301</v>
+        <v>305543</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>373440</v>
+        <v>373788</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1736421964486011</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1558642455103462</v>
+        <v>0.1570164337253528</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1919082729450576</v>
+        <v>0.1920869824872984</v>
       </c>
     </row>
     <row r="29">
@@ -5083,19 +5083,19 @@
         <v>33390</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24331</v>
+        <v>23916</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46044</v>
+        <v>46140</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03654176186506217</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02662763225931069</v>
+        <v>0.02617374056645901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05038974535575665</v>
+        <v>0.05049570184066964</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -5104,19 +5104,19 @@
         <v>51339</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>37304</v>
+        <v>37393</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68881</v>
+        <v>67721</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0497384633595087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03614093452385092</v>
+        <v>0.03622682283055152</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06673343251198767</v>
+        <v>0.06560920855015613</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -5125,19 +5125,19 @@
         <v>84729</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>66884</v>
+        <v>67149</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>103240</v>
+        <v>105589</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04354170025045122</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03437126639348068</v>
+        <v>0.03450736529912041</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05305436541398436</v>
+        <v>0.05426147280067678</v>
       </c>
     </row>
     <row r="30">
@@ -5276,19 +5276,19 @@
         <v>564334</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>520828</v>
+        <v>521018</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>609967</v>
+        <v>605312</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1698856846273236</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.15678864129083</v>
+        <v>0.1568459096218694</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1836230438311613</v>
+        <v>0.1822215428455154</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>400</v>
@@ -5297,19 +5297,19 @@
         <v>419966</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>380482</v>
+        <v>385422</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>457265</v>
+        <v>464241</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1204626056502668</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1091369411554088</v>
+        <v>0.1105539455006704</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1311613913251214</v>
+        <v>0.1331624558761346</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>922</v>
@@ -5318,19 +5318,19 @@
         <v>984300</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>927807</v>
+        <v>931307</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1044346</v>
+        <v>1050053</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1445772956582096</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1362793589327944</v>
+        <v>0.1367934846872621</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1533969888283634</v>
+        <v>0.1542352976984603</v>
       </c>
     </row>
     <row r="33">
@@ -5347,19 +5347,19 @@
         <v>917127</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>864026</v>
+        <v>867255</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>967820</v>
+        <v>970212</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2760897529076617</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2601043585879003</v>
+        <v>0.261076416916512</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.291350155667881</v>
+        <v>0.2920702946276259</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>911</v>
@@ -5368,19 +5368,19 @@
         <v>964519</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>912358</v>
+        <v>913133</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1018890</v>
+        <v>1025452</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2766613539654347</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2616996714498617</v>
+        <v>0.2619218810749641</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2922572727340917</v>
+        <v>0.2941392941367342</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1785</v>
@@ -5389,19 +5389,19 @@
         <v>1881646</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1805606</v>
+        <v>1804531</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1956186</v>
+        <v>1952750</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2763824562803511</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2652135031798653</v>
+        <v>0.2650556498601812</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2873311472319582</v>
+        <v>0.286826444677008</v>
       </c>
     </row>
     <row r="34">
@@ -5418,19 +5418,19 @@
         <v>1145667</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1091475</v>
+        <v>1093607</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1202546</v>
+        <v>1202470</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3448886245431348</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3285748308129297</v>
+        <v>0.329216736569744</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.362011333717226</v>
+        <v>0.3619885516495358</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1185</v>
@@ -5439,19 +5439,19 @@
         <v>1252616</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1195109</v>
+        <v>1196709</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1317092</v>
+        <v>1313343</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3592987046479005</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3428037395454609</v>
+        <v>0.3432624079716562</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3777931473118809</v>
+        <v>0.376717573501618</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2286</v>
@@ -5460,19 +5460,19 @@
         <v>2398282</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2316895</v>
+        <v>2318870</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2478824</v>
+        <v>2479753</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3522676854983781</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3403132780928617</v>
+        <v>0.3406033586434712</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3640980535278824</v>
+        <v>0.3642344060388797</v>
       </c>
     </row>
     <row r="35">
@@ -5489,19 +5489,19 @@
         <v>563421</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>519767</v>
+        <v>519112</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>607995</v>
+        <v>606667</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1696108435709389</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.156469436041486</v>
+        <v>0.1562722409155654</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1830293332840805</v>
+        <v>0.1826295580305779</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>629</v>
@@ -5510,19 +5510,19 @@
         <v>673212</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>621883</v>
+        <v>623481</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>721337</v>
+        <v>721873</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1931033009284471</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.178380118818939</v>
+        <v>0.1788384848980518</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2069075457163125</v>
+        <v>0.2070610871373287</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1165</v>
@@ -5531,19 +5531,19 @@
         <v>1236633</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1171898</v>
+        <v>1172165</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1302806</v>
+        <v>1302725</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1816407749501665</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1721323114651069</v>
+        <v>0.1721715061047642</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1913605483874143</v>
+        <v>0.1913485780274954</v>
       </c>
     </row>
     <row r="36">
@@ -5560,19 +5560,19 @@
         <v>131296</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>109849</v>
+        <v>109559</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>155649</v>
+        <v>154760</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03952509435094093</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03306879928795282</v>
+        <v>0.03298135556199899</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04685629791259755</v>
+        <v>0.04658857806826731</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>158</v>
@@ -5581,19 +5581,19 @@
         <v>175967</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>148461</v>
+        <v>151793</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>202663</v>
+        <v>205534</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05047403480795092</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04258436322805549</v>
+        <v>0.04354009512042109</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05813151248905708</v>
+        <v>0.05895520981141186</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>288</v>
@@ -5602,19 +5602,19 @@
         <v>307263</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>276278</v>
+        <v>273401</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>345279</v>
+        <v>340131</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04513178761289479</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04058066804136892</v>
+        <v>0.04015809381423792</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05071580267553546</v>
+        <v>0.04995958919477561</v>
       </c>
     </row>
     <row r="37">
@@ -5993,19 +5993,19 @@
         <v>242340</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>212807</v>
+        <v>213005</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268639</v>
+        <v>269099</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3539791414432311</v>
+        <v>0.3539791414432309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3108411279672597</v>
+        <v>0.3111300893797032</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3923923917971783</v>
+        <v>0.3930651521456973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -6014,19 +6014,19 @@
         <v>188427</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168602</v>
+        <v>169311</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209847</v>
+        <v>209928</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2600855547007644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2327215575514031</v>
+        <v>0.2337000035141406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2896512148751822</v>
+        <v>0.2897637860615664</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>506</v>
@@ -6035,19 +6035,19 @@
         <v>430768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>396973</v>
+        <v>397079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>469220</v>
+        <v>468586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.305704252792119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2817210334080524</v>
+        <v>0.2817962699192357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3329931407578688</v>
+        <v>0.3325430102310282</v>
       </c>
     </row>
     <row r="5">
@@ -6064,19 +6064,19 @@
         <v>231365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>206099</v>
+        <v>205904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257242</v>
+        <v>260581</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3379473247414672</v>
+        <v>0.3379473247414671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3010428645264598</v>
+        <v>0.3007568555972187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3757449823252313</v>
+        <v>0.3806231768845248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>465</v>
@@ -6085,19 +6085,19 @@
         <v>269939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248566</v>
+        <v>247349</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292106</v>
+        <v>291363</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3725968314481355</v>
+        <v>0.3725968314481354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3430947969254153</v>
+        <v>0.3414148234156059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4031932726828825</v>
+        <v>0.4021682607112239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>717</v>
@@ -6106,19 +6106,19 @@
         <v>501304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>468040</v>
+        <v>468226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>537990</v>
+        <v>537999</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3557621844791007</v>
+        <v>0.3557621844791006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3321553510585683</v>
+        <v>0.332287506218525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3817969552697358</v>
+        <v>0.3818037120417614</v>
       </c>
     </row>
     <row r="6">
@@ -6135,19 +6135,19 @@
         <v>155957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135776</v>
+        <v>133650</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>180346</v>
+        <v>180289</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.227802073957591</v>
+        <v>0.2278020739575909</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1983240582939254</v>
+        <v>0.1952190847568283</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2634264040538569</v>
+        <v>0.2633427824972853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>333</v>
@@ -6156,19 +6156,19 @@
         <v>188664</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>167767</v>
+        <v>167905</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>208531</v>
+        <v>207894</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2604129034837582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2315683053407472</v>
+        <v>0.2317593810210548</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2878351439414555</v>
+        <v>0.2869554628212462</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>514</v>
@@ -6177,19 +6177,19 @@
         <v>344622</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>313704</v>
+        <v>315254</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>373738</v>
+        <v>375073</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2445687586568782</v>
+        <v>0.2445687586568783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2226276503290396</v>
+        <v>0.223727436168986</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2652317088377377</v>
+        <v>0.2661793660828788</v>
       </c>
     </row>
     <row r="7">
@@ -6206,19 +6206,19 @@
         <v>42509</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32092</v>
+        <v>31021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56686</v>
+        <v>56144</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06209139933171329</v>
+        <v>0.06209139933171327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04687584157398043</v>
+        <v>0.04531141964084505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08279992752544356</v>
+        <v>0.08200798899078096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -6227,19 +6227,19 @@
         <v>57899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46306</v>
+        <v>47047</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71632</v>
+        <v>72589</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0799175847592451</v>
+        <v>0.07991758475924508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06391629857450845</v>
+        <v>0.06493870324256901</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09887403543785042</v>
+        <v>0.1001947419814819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -6248,19 +6248,19 @@
         <v>100408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84468</v>
+        <v>84167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119980</v>
+        <v>118894</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07125663783675121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05994450746107201</v>
+        <v>0.05973127512291736</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0851465678053603</v>
+        <v>0.08437558605716437</v>
       </c>
     </row>
     <row r="8">
@@ -6277,19 +6277,19 @@
         <v>11638</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7151</v>
+        <v>6775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17463</v>
+        <v>17972</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01699951184418548</v>
+        <v>0.01699951184418547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01044540137692664</v>
+        <v>0.009896687404325043</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02550778853838639</v>
+        <v>0.02625088645552827</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -6298,19 +6298,19 @@
         <v>16424</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10541</v>
+        <v>11020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22986</v>
+        <v>23834</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02266968603631868</v>
+        <v>0.02266968603631867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01454911991369527</v>
+        <v>0.01521086550654774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03172772019526746</v>
+        <v>0.03289825097816459</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -6319,19 +6319,19 @@
         <v>28062</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20507</v>
+        <v>20766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37007</v>
+        <v>38279</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0199148017724361</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01455346502281455</v>
+        <v>0.0147368245257616</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02626280342556414</v>
+        <v>0.02716555837489769</v>
       </c>
     </row>
     <row r="9">
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4072</v>
+        <v>4135</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001180548681812035</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005947905064197358</v>
+        <v>0.006040369841185438</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -6369,19 +6369,19 @@
         <v>3128</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>973</v>
+        <v>1063</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7189</v>
+        <v>7302</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004317439571778157</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00134256740232606</v>
+        <v>0.001467061618029278</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009922859506980828</v>
+        <v>0.01007865581482111</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -6390,19 +6390,19 @@
         <v>3936</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1642</v>
+        <v>1598</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8165</v>
+        <v>8632</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002793364462714686</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001165092207659072</v>
+        <v>0.001133898491353422</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005794316981325172</v>
+        <v>0.006125669771327577</v>
       </c>
     </row>
     <row r="10">
@@ -6494,19 +6494,19 @@
         <v>324670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>290309</v>
+        <v>289568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>358437</v>
+        <v>357103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3111283809044531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2782008006495707</v>
+        <v>0.2774901868193998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3434869880209735</v>
+        <v>0.3422081559663725</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -6515,19 +6515,19 @@
         <v>222984</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199807</v>
+        <v>200786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247090</v>
+        <v>246327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2106423179404149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1887482734624579</v>
+        <v>0.1896728692660878</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2334144074406513</v>
+        <v>0.232693635906299</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>545</v>
@@ -6536,19 +6536,19 @@
         <v>547654</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>505150</v>
+        <v>508569</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591428</v>
+        <v>592630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2605252946294958</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2403055987562478</v>
+        <v>0.2419321509866844</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2813491911652309</v>
+        <v>0.2819207953920224</v>
       </c>
     </row>
     <row r="12">
@@ -6565,19 +6565,19 @@
         <v>381654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>350233</v>
+        <v>348623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>418760</v>
+        <v>422157</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3657351692388027</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3356250206434634</v>
+        <v>0.3340824940092397</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4012937507998439</v>
+        <v>0.4045494715156159</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>583</v>
@@ -6586,19 +6586,19 @@
         <v>405472</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>378336</v>
+        <v>378725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>434357</v>
+        <v>433430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3830305719598319</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3573964556198935</v>
+        <v>0.3577636583284751</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4103171746815758</v>
+        <v>0.4094410438711644</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>942</v>
@@ -6607,19 +6607,19 @@
         <v>787126</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>744736</v>
+        <v>740938</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>833030</v>
+        <v>828522</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3744448423042663</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3542793228501744</v>
+        <v>0.3524726465761252</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.396281814413373</v>
+        <v>0.3941374372237103</v>
       </c>
     </row>
     <row r="13">
@@ -6636,19 +6636,19 @@
         <v>248911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>220321</v>
+        <v>220157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>280734</v>
+        <v>279084</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2385286337254836</v>
+        <v>0.2385286337254835</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2111312992339267</v>
+        <v>0.2109740400473051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2690250132204104</v>
+        <v>0.2674432539642309</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>443</v>
@@ -6657,19 +6657,19 @@
         <v>297999</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>271820</v>
+        <v>269551</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>324124</v>
+        <v>321355</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2815059639802964</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.25677606559189</v>
+        <v>0.2546326749263177</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3061852136469815</v>
+        <v>0.30356907973963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>695</v>
@@ -6678,19 +6678,19 @@
         <v>546910</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>508494</v>
+        <v>509262</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>586192</v>
+        <v>586758</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2601712922853072</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2418963075819012</v>
+        <v>0.2422616222180583</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2788584104325673</v>
+        <v>0.2791276160667875</v>
       </c>
     </row>
     <row r="14">
@@ -6707,19 +6707,19 @@
         <v>74927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58895</v>
+        <v>59202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94100</v>
+        <v>99603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07180160026580305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05643829609209345</v>
+        <v>0.05673229545958686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09017548975468295</v>
+        <v>0.09544814782740738</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -6728,19 +6728,19 @@
         <v>107506</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90555</v>
+        <v>90677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127190</v>
+        <v>125546</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1015558399458181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08554310254194983</v>
+        <v>0.08565841961680722</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1201506633739435</v>
+        <v>0.1185976884648773</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>230</v>
@@ -6749,19 +6749,19 @@
         <v>182433</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>158990</v>
+        <v>159508</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>209138</v>
+        <v>211043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08678533346383271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07563351300045414</v>
+        <v>0.07587997620514975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09948940236333766</v>
+        <v>0.1003956303484088</v>
       </c>
     </row>
     <row r="15">
@@ -6778,19 +6778,19 @@
         <v>10886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5895</v>
+        <v>6141</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19035</v>
+        <v>20073</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01043168241630787</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.005649524953751234</v>
+        <v>0.005885213774506947</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01824100959606439</v>
+        <v>0.01923577588048071</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>30</v>
@@ -6799,19 +6799,19 @@
         <v>22240</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14524</v>
+        <v>14538</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32434</v>
+        <v>32993</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02100905826859797</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01371969607565269</v>
+        <v>0.01373304844263045</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03063866587616541</v>
+        <v>0.0311670486419594</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>42</v>
@@ -6820,19 +6820,19 @@
         <v>33126</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>24703</v>
+        <v>23962</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>45912</v>
+        <v>46245</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01575827047267982</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01175164539799627</v>
+        <v>0.01139916378786246</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0218407315909389</v>
+        <v>0.02199925293990986</v>
       </c>
     </row>
     <row r="16">
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8358</v>
+        <v>8605</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002374533449149676</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008009744575003376</v>
+        <v>0.008245710638303025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6870,19 +6870,19 @@
         <v>2388</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>549</v>
+        <v>688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5844</v>
+        <v>5921</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002256247905040756</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00051904104038156</v>
+        <v>0.0006502497278579748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005520655096570464</v>
+        <v>0.005593764104078421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6891,19 +6891,19 @@
         <v>4866</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1837</v>
+        <v>2083</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11099</v>
+        <v>10877</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002314966844417972</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0008736808164456552</v>
+        <v>0.0009910896811158889</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005279952161092147</v>
+        <v>0.005174480394993402</v>
       </c>
     </row>
     <row r="17">
@@ -6995,19 +6995,19 @@
         <v>228911</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197184</v>
+        <v>197661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>260889</v>
+        <v>258425</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2850437821064763</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2455366774499222</v>
+        <v>0.2461303453433646</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3248633488697822</v>
+        <v>0.321795214981599</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>232</v>
@@ -7016,19 +7016,19 @@
         <v>174705</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>155289</v>
+        <v>152420</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>197294</v>
+        <v>197059</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2153117931048843</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1913833704415029</v>
+        <v>0.1878465806997282</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2431505935875969</v>
+        <v>0.2428616843455473</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>410</v>
@@ -7037,19 +7037,19 @@
         <v>403616</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>364026</v>
+        <v>364489</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>440419</v>
+        <v>444687</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2499978585878085</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.225476155353681</v>
+        <v>0.2257625183557132</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2727935349726575</v>
+        <v>0.2754372334789708</v>
       </c>
     </row>
     <row r="19">
@@ -7066,19 +7066,19 @@
         <v>261027</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>232469</v>
+        <v>230025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>294441</v>
+        <v>291284</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3250350176077364</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2894743891520753</v>
+        <v>0.2864304476676905</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3666433141486841</v>
+        <v>0.3627120397157653</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>319</v>
@@ -7087,19 +7087,19 @@
         <v>251274</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>226946</v>
+        <v>226461</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>277278</v>
+        <v>278411</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3096770426145115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2796954706815278</v>
+        <v>0.2790977031601316</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3417259607211782</v>
+        <v>0.3431222376734172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>545</v>
@@ -7108,19 +7108,19 @@
         <v>512300</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>473120</v>
+        <v>472631</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>552997</v>
+        <v>553129</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.317316402023691</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2930484824603323</v>
+        <v>0.2927455601355117</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3425239765404953</v>
+        <v>0.3426053012635225</v>
       </c>
     </row>
     <row r="20">
@@ -7137,19 +7137,19 @@
         <v>218554</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>189794</v>
+        <v>188821</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247250</v>
+        <v>247755</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2721471574135919</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2363341709688878</v>
+        <v>0.2351226979282723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3078798723695104</v>
+        <v>0.3085088442732226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -7158,19 +7158,19 @@
         <v>213219</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189917</v>
+        <v>190912</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237800</v>
+        <v>238367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2627778048337076</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2340595037718021</v>
+        <v>0.2352851706613558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2930718788724853</v>
+        <v>0.2937706340547178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>454</v>
@@ -7179,19 +7179,19 @@
         <v>431773</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>398123</v>
+        <v>396355</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>471218</v>
+        <v>464555</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2674383054414136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.246595577555164</v>
+        <v>0.2455004335076104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2918704329918597</v>
+        <v>0.2877434065877104</v>
       </c>
     </row>
     <row r="21">
@@ -7208,19 +7208,19 @@
         <v>73394</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55893</v>
+        <v>56897</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93521</v>
+        <v>93548</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09139169050023725</v>
+        <v>0.09139169050023727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06959928006747305</v>
+        <v>0.07084943501381706</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1164537848503739</v>
+        <v>0.1164876596797357</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>179</v>
@@ -7229,19 +7229,19 @@
         <v>133156</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>114551</v>
+        <v>116001</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>151857</v>
+        <v>153618</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.164105918325578</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1411756762444711</v>
+        <v>0.1429637143721108</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1871532453412449</v>
+        <v>0.1893232618323126</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>242</v>
@@ -7250,19 +7250,19 @@
         <v>206551</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>178553</v>
+        <v>182292</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>235144</v>
+        <v>236590</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1279364284830833</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1105946482443944</v>
+        <v>0.1129104894851321</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1456472339608518</v>
+        <v>0.1465429203232011</v>
       </c>
     </row>
     <row r="22">
@@ -7279,19 +7279,19 @@
         <v>17249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9791</v>
+        <v>10362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28287</v>
+        <v>28447</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02147844771812323</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01219135694361417</v>
+        <v>0.01290260844317848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03522385402169528</v>
+        <v>0.03542288862176071</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -7300,19 +7300,19 @@
         <v>38342</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28404</v>
+        <v>28133</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53138</v>
+        <v>51690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0472539607985416</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03500549088579254</v>
+        <v>0.03467153504742064</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06548882022354312</v>
+        <v>0.06370396446771781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -7321,19 +7321,19 @@
         <v>55591</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42307</v>
+        <v>43140</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71993</v>
+        <v>72335</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03443271265455207</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02620469001931714</v>
+        <v>0.0267204293277427</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04459235461965264</v>
+        <v>0.04480414352261903</v>
       </c>
     </row>
     <row r="23">
@@ -7350,19 +7350,19 @@
         <v>3938</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1134</v>
+        <v>1109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10341</v>
+        <v>10043</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.004903904653834977</v>
+        <v>0.004903904653834976</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001412430046537276</v>
+        <v>0.001380346451680244</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01287730487599041</v>
+        <v>0.01250554155795507</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0008734803227769483</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.004401290150879623</v>
+        <v>0.004404221827486099</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -7392,19 +7392,19 @@
         <v>4647</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11123</v>
+        <v>10731</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.002878292809451578</v>
+        <v>0.002878292809451577</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001085077985091922</v>
+        <v>0.001075708097241961</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.006889475562755689</v>
+        <v>0.006646848231403069</v>
       </c>
     </row>
     <row r="24">
@@ -7496,19 +7496,19 @@
         <v>262710</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>234133</v>
+        <v>235172</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>294891</v>
+        <v>299027</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2661935985369546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2372377065777639</v>
+        <v>0.2382903494823892</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2988015307066028</v>
+        <v>0.3029921724748416</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>282</v>
@@ -7517,19 +7517,19 @@
         <v>201363</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>179022</v>
+        <v>180143</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>224137</v>
+        <v>224749</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.180258997648715</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1602594299381835</v>
+        <v>0.1612627331730556</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2006465980896189</v>
+        <v>0.2011935722308915</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>531</v>
@@ -7538,19 +7538,19 @@
         <v>464073</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>427084</v>
+        <v>428012</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>504284</v>
+        <v>502530</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2205681478389117</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2029876940875069</v>
+        <v>0.203428494089478</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2396795088631918</v>
+        <v>0.2388458833696063</v>
       </c>
     </row>
     <row r="26">
@@ -7567,19 +7567,19 @@
         <v>357052</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>328527</v>
+        <v>324115</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>392155</v>
+        <v>387949</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3617858500995846</v>
+        <v>0.3617858500995845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3328830175599705</v>
+        <v>0.3284125440640919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3973548338921148</v>
+        <v>0.3930927782225838</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>525</v>
@@ -7588,19 +7588,19 @@
         <v>379268</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>349753</v>
+        <v>351882</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>407405</v>
+        <v>406019</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3395186421244614</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3130965765962382</v>
+        <v>0.3150029632010571</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.364706728658472</v>
+        <v>0.3634656959961536</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>887</v>
@@ -7609,19 +7609,19 @@
         <v>736320</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>691559</v>
+        <v>692861</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>777885</v>
+        <v>781907</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3499634713470106</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3286889975617821</v>
+        <v>0.329308039818919</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.369718939647692</v>
+        <v>0.3716305614174137</v>
       </c>
     </row>
     <row r="27">
@@ -7638,19 +7638,19 @@
         <v>263828</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>237206</v>
+        <v>236091</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>297920</v>
+        <v>296267</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2673266094796675</v>
+        <v>0.2673266094796674</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2403507953997924</v>
+        <v>0.2392212693896213</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3018705422786044</v>
+        <v>0.3001949585001202</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>473</v>
@@ -7659,19 +7659,19 @@
         <v>331220</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>303821</v>
+        <v>306418</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>359884</v>
+        <v>357511</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2965059300193563</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.271978644116454</v>
+        <v>0.2743035595021174</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3221661327542006</v>
+        <v>0.3200420486040568</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>747</v>
@@ -7680,19 +7680,19 @@
         <v>595048</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>554795</v>
+        <v>554274</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>639849</v>
+        <v>633113</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2828188516839151</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2636870612567585</v>
+        <v>0.2634392836763016</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3041119886562946</v>
+        <v>0.3009106852921224</v>
       </c>
     </row>
     <row r="28">
@@ -7709,19 +7709,19 @@
         <v>81041</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>65091</v>
+        <v>64893</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>100275</v>
+        <v>98202</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.08211513253094584</v>
+        <v>0.08211513253094582</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06595402134300229</v>
+        <v>0.06575375232842719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1016047768668438</v>
+        <v>0.09950415205851101</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>214</v>
@@ -7730,19 +7730,19 @@
         <v>158109</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>137736</v>
+        <v>138438</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>179170</v>
+        <v>178606</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1415386182495383</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1233008831089327</v>
+        <v>0.1239289551417687</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1603922007126056</v>
+        <v>0.1598866703959732</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>305</v>
@@ -7751,19 +7751,19 @@
         <v>239150</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>213464</v>
+        <v>214746</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>268139</v>
+        <v>268538</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.113664977295868</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.101456556494005</v>
+        <v>0.1020658760991821</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1274432631931557</v>
+        <v>0.1276328440661706</v>
       </c>
     </row>
     <row r="29">
@@ -7780,19 +7780,19 @@
         <v>19385</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12660</v>
+        <v>12560</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29136</v>
+        <v>28749</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0196418299853603</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01282792512487208</v>
+        <v>0.01272632341833844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0295218608145843</v>
+        <v>0.02913015607204716</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -7801,19 +7801,19 @@
         <v>40960</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>31200</v>
+        <v>30522</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54578</v>
+        <v>53532</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03666704312602791</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02793030371680493</v>
+        <v>0.02732298460421864</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04885752507902019</v>
+        <v>0.04792168925147417</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>79</v>
@@ -7822,19 +7822,19 @@
         <v>60345</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47510</v>
+        <v>48543</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>75703</v>
+        <v>75963</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02868106464455691</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02258103803823747</v>
+        <v>0.02307203672335579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03598063473475591</v>
+        <v>0.03610428084823235</v>
       </c>
     </row>
     <row r="30">
@@ -7851,19 +7851,19 @@
         <v>2899</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6846</v>
+        <v>7754</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002936979367487239</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0008531512291006562</v>
+        <v>0.0008620532246763708</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.006937277196111776</v>
+        <v>0.007856925889919862</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -7872,19 +7872,19 @@
         <v>6156</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2820</v>
+        <v>2677</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11827</v>
+        <v>11687</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.005510768831901013</v>
+        <v>0.005510768831901014</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002524596608398415</v>
+        <v>0.002396019656956654</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01058752585699876</v>
+        <v>0.01046186470345461</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -7893,19 +7893,19 @@
         <v>9054</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4680</v>
+        <v>4765</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15412</v>
+        <v>15181</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.004303487189737725</v>
+        <v>0.004303487189737726</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002224311375953502</v>
+        <v>0.002264890316094655</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.007324953351565784</v>
+        <v>0.007215325681222426</v>
       </c>
     </row>
     <row r="31">
@@ -7997,19 +7997,19 @@
         <v>1058632</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>993725</v>
+        <v>996783</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1124948</v>
+        <v>1119814</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3009075539089355</v>
+        <v>0.3009075539089356</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2824582599815783</v>
+        <v>0.28332744814632</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3197575064324266</v>
+        <v>0.3182979540556095</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1088</v>
@@ -8018,19 +8018,19 @@
         <v>787479</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>745159</v>
+        <v>742410</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>836551</v>
+        <v>832913</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2121697154798914</v>
+        <v>0.2121697154798913</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2007674900096871</v>
+        <v>0.2000269357406995</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2253913118457563</v>
+        <v>0.2244110553084563</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1992</v>
@@ -8039,19 +8039,19 @@
         <v>1846111</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1780900</v>
+        <v>1774703</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1935564</v>
+        <v>1924471</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2553516014715136</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2463317715320412</v>
+        <v>0.245474638418324</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2677246218131328</v>
+        <v>0.2661902587195977</v>
       </c>
     </row>
     <row r="33">
@@ -8068,19 +8068,19 @@
         <v>1231097</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1167248</v>
+        <v>1163457</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1292421</v>
+        <v>1296269</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3499293592708378</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3317807196298123</v>
+        <v>0.3307032387031888</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3673601760187391</v>
+        <v>0.3684539688543745</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1892</v>
@@ -8089,19 +8089,19 @@
         <v>1305953</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1256158</v>
+        <v>1247857</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1358842</v>
+        <v>1356981</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3518617707884136</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3384455505918206</v>
+        <v>0.336209094941855</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3661116111701205</v>
+        <v>0.365610293865356</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3091</v>
@@ -8110,19 +8110,19 @@
         <v>2537050</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2461718</v>
+        <v>2457003</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2622199</v>
+        <v>2613888</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3509214146188459</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3405015996653453</v>
+        <v>0.3398494658008714</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3626991342340653</v>
+        <v>0.361549539013362</v>
       </c>
     </row>
     <row r="34">
@@ -8139,19 +8139,19 @@
         <v>887250</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>828695</v>
+        <v>834517</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>944124</v>
+        <v>944877</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2521937510128582</v>
+        <v>0.2521937510128583</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2355499487091828</v>
+        <v>0.237204753075947</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2683596292883644</v>
+        <v>0.2685737270770872</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1514</v>
@@ -8160,19 +8160,19 @@
         <v>1031102</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>981307</v>
+        <v>982758</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1083885</v>
+        <v>1082820</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2778089860154805</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.264392724734031</v>
+        <v>0.2647836623893257</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2920302117837945</v>
+        <v>0.2917432135311317</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2410</v>
@@ -8181,19 +8181,19 @@
         <v>1918353</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1849382</v>
+        <v>1844187</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1988614</v>
+        <v>1999119</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2653440198058707</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2558040565549128</v>
+        <v>0.2550854699184158</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2750624658211058</v>
+        <v>0.2765154990298657</v>
       </c>
     </row>
     <row r="35">
@@ -8210,19 +8210,19 @@
         <v>271870</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>238393</v>
+        <v>238246</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>309428</v>
+        <v>306246</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07727696998654456</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06776139266125589</v>
+        <v>0.06771948479227209</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0879522747070552</v>
+        <v>0.08704794869982256</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>647</v>
@@ -8231,19 +8231,19 @@
         <v>456670</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>420014</v>
+        <v>423084</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>490758</v>
+        <v>495070</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1230403213971725</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.113163979517101</v>
+        <v>0.1139911097491283</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.13222455748602</v>
+        <v>0.1333863982238308</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>929</v>
@@ -8252,19 +8252,19 @@
         <v>728541</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>677594</v>
+        <v>677101</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>779667</v>
+        <v>781370</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1007708154209994</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09372390724463937</v>
+        <v>0.09365575664041038</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1078425779327716</v>
+        <v>0.1080781055562182</v>
       </c>
     </row>
     <row r="36">
@@ -8281,19 +8281,19 @@
         <v>59157</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44801</v>
+        <v>46524</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>74009</v>
+        <v>75361</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01681502782260796</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01273424494586393</v>
+        <v>0.01322410374770721</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02103642434412231</v>
+        <v>0.02142065537788791</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>164</v>
@@ -8302,19 +8302,19 @@
         <v>117966</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>101126</v>
+        <v>101426</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>140021</v>
+        <v>138749</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03178339395579893</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02724619879257555</v>
+        <v>0.02732704024422705</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03772578471535826</v>
+        <v>0.03738299008731934</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>232</v>
@@ -8323,19 +8323,19 @@
         <v>177123</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>153540</v>
+        <v>156011</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>201640</v>
+        <v>201379</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02449944055680835</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02123743601158357</v>
+        <v>0.02157926468926989</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0278905806373785</v>
+        <v>0.02785445979459014</v>
       </c>
     </row>
     <row r="37">
@@ -8352,19 +8352,19 @@
         <v>10123</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4941</v>
+        <v>5188</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17440</v>
+        <v>17914</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002877337998215853</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.00140433470909517</v>
+        <v>0.001474753716851572</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.004957136235549885</v>
+        <v>0.005091773965244967</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>18</v>
@@ -8373,19 +8373,19 @@
         <v>12381</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7334</v>
+        <v>7428</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19806</v>
+        <v>20118</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003335812363243103</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001975973744578994</v>
+        <v>0.002001425030347129</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.005336287735755671</v>
+        <v>0.005420322060118171</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>29</v>
@@ -8394,19 +8394,19 @@
         <v>22504</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15385</v>
+        <v>15271</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32192</v>
+        <v>32604</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.003112708125961973</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.002127978592245424</v>
+        <v>0.002112311894182846</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.004452753818649274</v>
+        <v>0.004509801112853061</v>
       </c>
     </row>
     <row r="38">
